--- a/data_year/zb/国民经济核算/居民消费水平.xlsx
+++ b/data_year/zb/国民经济核算/居民消费水平.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,716 +483,438 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917</v>
+        <v>4781.59911273372</v>
       </c>
       <c r="C2" t="n">
-        <v>375.2</v>
+        <v>689.222297017866</v>
       </c>
       <c r="D2" t="n">
-        <v>106.608684586966</v>
+        <v>105.380877834795</v>
       </c>
       <c r="E2" t="n">
-        <v>6971.6</v>
+        <v>16569.8371577172</v>
       </c>
       <c r="F2" t="n">
-        <v>393</v>
+        <v>726.895916518446</v>
       </c>
       <c r="G2" t="n">
-        <v>109.58189368846</v>
+        <v>105.866963212906</v>
       </c>
       <c r="H2" t="n">
-        <v>3711.5</v>
+        <v>10575.2360526229</v>
       </c>
       <c r="I2" t="n">
-        <v>491.9</v>
+        <v>1074.74947525428</v>
       </c>
       <c r="J2" t="n">
-        <v>110.487941158242</v>
+        <v>107.539611438409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2032.1</v>
+        <v>5879.64081676116</v>
       </c>
       <c r="C3" t="n">
-        <v>392.7</v>
+        <v>763.998579080272</v>
       </c>
       <c r="D3" t="n">
-        <v>104.641159168355</v>
+        <v>110.849370716233</v>
       </c>
       <c r="E3" t="n">
-        <v>7271.9</v>
+        <v>19218.4632470471</v>
       </c>
       <c r="F3" t="n">
-        <v>406.5</v>
+        <v>776.2580236216349</v>
       </c>
       <c r="G3" t="n">
-        <v>103.449773170781</v>
+        <v>106.790808144805</v>
       </c>
       <c r="H3" t="n">
-        <v>3967.8</v>
+        <v>12668.1313943978</v>
       </c>
       <c r="I3" t="n">
-        <v>520.7</v>
+        <v>1179.74558699674</v>
       </c>
       <c r="J3" t="n">
-        <v>105.866231896693</v>
+        <v>109.769356874319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2156.7</v>
+        <v>6573.3866806249</v>
       </c>
       <c r="C4" t="n">
-        <v>418.5</v>
+        <v>826.111632762614</v>
       </c>
       <c r="D4" t="n">
-        <v>106.567984092958</v>
+        <v>108.129995968987</v>
       </c>
       <c r="E4" t="n">
-        <v>7662.2</v>
+        <v>20868.5603127371</v>
       </c>
       <c r="F4" t="n">
-        <v>430.6</v>
+        <v>831.006389397805</v>
       </c>
       <c r="G4" t="n">
-        <v>105.921450793464</v>
+        <v>107.052856667522</v>
       </c>
       <c r="H4" t="n">
-        <v>4269.5</v>
+        <v>14073.7107247783</v>
       </c>
       <c r="I4" t="n">
-        <v>563.1</v>
+        <v>1286.94547179115</v>
       </c>
       <c r="J4" t="n">
-        <v>108.138494152056</v>
+        <v>109.086695129525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2292.2</v>
+        <v>7396.58448170387</v>
       </c>
       <c r="C5" t="n">
-        <v>437.7</v>
+        <v>903.859928426538</v>
       </c>
       <c r="D5" t="n">
-        <v>104.596503056487</v>
+        <v>109.411354662072</v>
       </c>
       <c r="E5" t="n">
-        <v>7976.6</v>
+        <v>22619.7064774396</v>
       </c>
       <c r="F5" t="n">
-        <v>443.4</v>
+        <v>878.202557078042</v>
       </c>
       <c r="G5" t="n">
-        <v>102.974414105435</v>
+        <v>105.679398893002</v>
       </c>
       <c r="H5" t="n">
-        <v>4555.3</v>
+        <v>15586.1984343774</v>
       </c>
       <c r="I5" t="n">
-        <v>593.4</v>
+        <v>1388.94701863642</v>
       </c>
       <c r="J5" t="n">
-        <v>105.378952708909</v>
+        <v>107.925863922059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2521.4</v>
+        <v>8364.957163698869</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9</v>
+        <v>1002.26891870756</v>
       </c>
       <c r="D6" t="n">
-        <v>103.940957474983</v>
+        <v>110.887637252858</v>
       </c>
       <c r="E6" t="n">
-        <v>8717.9</v>
+        <v>24429.885614548</v>
       </c>
       <c r="F6" t="n">
-        <v>466.6</v>
+        <v>930.277018211892</v>
       </c>
       <c r="G6" t="n">
-        <v>105.240828740709</v>
+        <v>105.929664029573</v>
       </c>
       <c r="H6" t="n">
-        <v>5071.1</v>
+        <v>17220.3060291313</v>
       </c>
       <c r="I6" t="n">
-        <v>632.7</v>
+        <v>1505.09811007574</v>
       </c>
       <c r="J6" t="n">
-        <v>106.625141189254</v>
+        <v>108.362528583225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2783.6</v>
+        <v>9409.224030736579</v>
       </c>
       <c r="C7" t="n">
-        <v>485.8</v>
+        <v>1129.06567866685</v>
       </c>
       <c r="D7" t="n">
-        <v>106.783498340108</v>
+        <v>112.650971968959</v>
       </c>
       <c r="E7" t="n">
-        <v>9637</v>
+        <v>26118.7197622555</v>
       </c>
       <c r="F7" t="n">
-        <v>505.4</v>
+        <v>994.284682306931</v>
       </c>
       <c r="G7" t="n">
-        <v>108.302726283483</v>
+        <v>106.880495039861</v>
       </c>
       <c r="H7" t="n">
-        <v>5687.9</v>
+        <v>18857.1623123084</v>
       </c>
       <c r="I7" t="n">
-        <v>693</v>
+        <v>1648.36238495711</v>
       </c>
       <c r="J7" t="n">
-        <v>109.537849816285</v>
+        <v>109.518600410319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3065.5</v>
+        <v>10609.0335495016</v>
       </c>
       <c r="C8" t="n">
-        <v>521.4</v>
+        <v>1251.36570557545</v>
       </c>
       <c r="D8" t="n">
-        <v>107.319094002197</v>
+        <v>110.831967459414</v>
       </c>
       <c r="E8" t="n">
-        <v>10515.8</v>
+        <v>28154.1156801383</v>
       </c>
       <c r="F8" t="n">
-        <v>535.4</v>
+        <v>1050.43389418925</v>
       </c>
       <c r="G8" t="n">
-        <v>105.947404173008</v>
+        <v>105.647196711513</v>
       </c>
       <c r="H8" t="n">
-        <v>6318.9</v>
+        <v>20800.5645328498</v>
       </c>
       <c r="I8" t="n">
-        <v>748.3</v>
+        <v>1783.16828727539</v>
       </c>
       <c r="J8" t="n">
-        <v>107.974211193959</v>
+        <v>108.17817147179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3537.8</v>
+        <v>12145.2629087266</v>
       </c>
       <c r="C9" t="n">
-        <v>566.8</v>
+        <v>1386.6132159617</v>
       </c>
       <c r="D9" t="n">
-        <v>108.722365604225</v>
+        <v>110.807992402513</v>
       </c>
       <c r="E9" t="n">
-        <v>12217</v>
+        <v>30322.7150268166</v>
       </c>
       <c r="F9" t="n">
-        <v>595.5</v>
+        <v>1092.02763968942</v>
       </c>
       <c r="G9" t="n">
-        <v>111.215138456909</v>
+        <v>103.95967282951</v>
       </c>
       <c r="H9" t="n">
-        <v>7453.7</v>
+        <v>22968.4901026705</v>
       </c>
       <c r="I9" t="n">
-        <v>841.4</v>
+        <v>1901.71943535677</v>
       </c>
       <c r="J9" t="n">
-        <v>112.445996719971</v>
+        <v>106.648343228586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3980.5</v>
+        <v>13984.6734352046</v>
       </c>
       <c r="C10" t="n">
-        <v>593.8</v>
+        <v>1558.789476368</v>
       </c>
       <c r="D10" t="n">
-        <v>104.756224466086</v>
+        <v>112.417035870157</v>
       </c>
       <c r="E10" t="n">
-        <v>13721.8</v>
+        <v>32482.9370188281</v>
       </c>
       <c r="F10" t="n">
-        <v>632.2</v>
+        <v>1142.98507400391</v>
       </c>
       <c r="G10" t="n">
-        <v>106.170453928224</v>
+        <v>104.666313604387</v>
       </c>
       <c r="H10" t="n">
-        <v>8504.5</v>
+        <v>25244.8300612735</v>
       </c>
       <c r="I10" t="n">
-        <v>904.2</v>
+        <v>2041.92927531474</v>
       </c>
       <c r="J10" t="n">
-        <v>107.462777267703</v>
+        <v>107.372793134002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4295.2</v>
+        <v>15382.3887164216</v>
       </c>
       <c r="C11" t="n">
-        <v>654</v>
+        <v>1668.2185820815</v>
       </c>
       <c r="D11" t="n">
-        <v>110.145123471948</v>
+        <v>107.020133723796</v>
       </c>
       <c r="E11" t="n">
-        <v>14686.6</v>
+        <v>34900.2049556163</v>
       </c>
       <c r="F11" t="n">
-        <v>686.6</v>
+        <v>1195.92177143593</v>
       </c>
       <c r="G11" t="n">
-        <v>108.599785126933</v>
+        <v>104.631442582761</v>
       </c>
       <c r="H11" t="n">
-        <v>9248.5</v>
+        <v>27504.136013586</v>
       </c>
       <c r="I11" t="n">
-        <v>999.4</v>
+        <v>2166.01423262881</v>
       </c>
       <c r="J11" t="n">
-        <v>110.523684374772</v>
+        <v>106.076848929792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4781.6</v>
+        <v>16046.3984729961</v>
       </c>
       <c r="C12" t="n">
-        <v>689.2</v>
+        <v>1697.86224642547</v>
       </c>
       <c r="D12" t="n">
-        <v>105.380877834795</v>
+        <v>101.776965240789</v>
       </c>
       <c r="E12" t="n">
-        <v>16569.8</v>
+        <v>34043.4465199419</v>
       </c>
       <c r="F12" t="n">
-        <v>726.9</v>
+        <v>1140.65378919245</v>
       </c>
       <c r="G12" t="n">
-        <v>105.866963212906</v>
+        <v>95.3786289736054</v>
       </c>
       <c r="H12" t="n">
-        <v>10575.2</v>
+        <v>27438.5770761946</v>
       </c>
       <c r="I12" t="n">
-        <v>1074.7</v>
+        <v>2111.88761419453</v>
       </c>
       <c r="J12" t="n">
-        <v>107.539611438409</v>
+        <v>97.5010959014524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5879.6</v>
+        <v>18433.6744333401</v>
       </c>
       <c r="C13" t="n">
-        <v>764</v>
+        <v>1927.1370164634</v>
       </c>
       <c r="D13" t="n">
-        <v>110.849370716233</v>
+        <v>113.503732150275</v>
       </c>
       <c r="E13" t="n">
-        <v>19218.5</v>
+        <v>37995.4946312688</v>
       </c>
       <c r="F13" t="n">
-        <v>776.3</v>
+        <v>1254.01223520352</v>
       </c>
       <c r="G13" t="n">
-        <v>106.790808144805</v>
+        <v>109.938023884646</v>
       </c>
       <c r="H13" t="n">
-        <v>12668.1</v>
+        <v>31012.9985074174</v>
       </c>
       <c r="I13" t="n">
-        <v>1179.7</v>
+        <v>2352.79497694345</v>
       </c>
       <c r="J13" t="n">
-        <v>109.769356874319</v>
+        <v>111.407205626366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6573.4</v>
+        <v>19530.4646266905</v>
       </c>
       <c r="C14" t="n">
-        <v>826.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>108.129995968987</v>
-      </c>
+        <v>2002.30748829869</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>20868.6</v>
+        <v>38289.0066181325</v>
       </c>
       <c r="F14" t="n">
-        <v>831</v>
-      </c>
-      <c r="G14" t="n">
-        <v>107.052856667522</v>
-      </c>
+        <v>1238.1637113997</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>14073.7</v>
+        <v>31717.7552289942</v>
       </c>
       <c r="I14" t="n">
-        <v>1286.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>109.086695129525</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7396.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>903.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>109.411354662072</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22619.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>878.2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>105.679398893002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15586.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1388.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>107.925863922059</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8365</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1002.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>110.887637252858</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24429.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>930.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>105.929664029573</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17220.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1505.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>108.362528583225</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9409.200000000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1129.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>112.650971968959</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26118.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>994.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>106.880495039861</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18857.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1648.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>109.518600410319</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10609</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1251.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>110.831967459414</v>
-      </c>
-      <c r="E18" t="n">
-        <v>28154.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1050.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>105.647196711513</v>
-      </c>
-      <c r="H18" t="n">
-        <v>20800.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1783.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>108.17817147179</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>12145.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1386.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>110.807992402513</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30322.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1092</v>
-      </c>
-      <c r="G19" t="n">
-        <v>103.95967282951</v>
-      </c>
-      <c r="H19" t="n">
-        <v>22968.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1901.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>106.648343228586</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>13984.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1558.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>112.417035870157</v>
-      </c>
-      <c r="E20" t="n">
-        <v>32482.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1143</v>
-      </c>
-      <c r="G20" t="n">
-        <v>104.666313604387</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25244.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2041.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>107.372793134002</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>15382.4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1668.2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>107.020133723796</v>
-      </c>
-      <c r="E21" t="n">
-        <v>34900.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1195.9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>104.631442582761</v>
-      </c>
-      <c r="H21" t="n">
-        <v>27504.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2166</v>
-      </c>
-      <c r="J21" t="n">
-        <v>106.076848929792</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>16046.3984729961</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1697.86224642547</v>
-      </c>
-      <c r="D22" t="n">
-        <v>101.776965240789</v>
-      </c>
-      <c r="E22" t="n">
-        <v>34043.4465199419</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1140.65378919245</v>
-      </c>
-      <c r="G22" t="n">
-        <v>95.3786289736054</v>
-      </c>
-      <c r="H22" t="n">
-        <v>27438.5770761946</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2111.88761419453</v>
-      </c>
-      <c r="J22" t="n">
-        <v>97.5010959014524</v>
-      </c>
+        <v>2358.1132586442</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
